--- a/Analusis.xlsx
+++ b/Analusis.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -619,263 +619,92 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="G3" t="n">
         <v>900000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1000000</v>
       </c>
-      <c r="J3" t="n">
-        <v>150000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3200000</v>
+      <c r="M3" t="n">
+        <v>2650000</v>
       </c>
       <c r="R3" t="n">
-        <v>5100000</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5100000</v>
+        <v>4700000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1040000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5100000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5000000</v>
+        <v>2650000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>400000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1040000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5100000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5100000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5100000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5100000</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5100000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4300000</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5100000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1850000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2100000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2100000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
-        <v>900000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1020000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>1040000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>900000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -885,7 +714,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -895,7 +724,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Analusis.xlsx
+++ b/Analusis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puxlozadiy\Downloads\botpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26D178-28F6-4C4B-9B20-A4BA1E16730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01DA5C9-4F55-4100-A499-49BDCD1A3D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1590" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analusis.xlsx
+++ b/Analusis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puxlozadiy\Downloads\botpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E6B72-4949-495B-9E6B-147C1827C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F3118-CAD6-44F6-9B47-9AE175427AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
